--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBCA329-BA82-45F0-B155-FFC6C380DFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A304C716-F028-4DA8-B1C4-4B52B9F3BC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -71,14 +71,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>max_health</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>StatsInfo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -96,6 +88,22 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>strength</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intelligence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>willpower</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dexterity</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -169,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -214,11 +222,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -253,6 +272,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -264,11 +289,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,7 +614,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -598,7 +623,7 @@
     <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="5" width="15.77734375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="20" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="9" customWidth="1"/>
     <col min="7" max="7" width="15" style="9" customWidth="1"/>
     <col min="8" max="8" width="14.88671875" style="9" customWidth="1"/>
     <col min="9" max="9" width="15.109375" style="9" customWidth="1"/>
@@ -628,14 +653,14 @@
         <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="8"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -668,12 +693,12 @@
       <c r="E2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>12</v>
+      <c r="F2" s="19" t="s">
+        <v>10</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="7"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="20"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -698,14 +723,18 @@
       <c r="C3" s="12"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
-      <c r="F3" s="21" t="s">
-        <v>16</v>
+      <c r="F3" s="17" t="s">
+        <v>14</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>16</v>
+      <c r="G3" s="18" t="s">
+        <v>14</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -736,16 +765,20 @@
         <v>7</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="7"/>
+      <c r="H4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -765,25 +798,29 @@
     <row r="5" spans="1:24" ht="30.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="14"/>
       <c r="B5" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G5" s="15">
-        <v>50</v>
+        <v>10</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="4"/>
+      <c r="H5" s="15">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4">
+        <v>10</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="3"/>
@@ -3272,8 +3309,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
